--- a/artfynd/A 11231-2021.xlsx
+++ b/artfynd/A 11231-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105314689</v>
+        <v>110726881</v>
       </c>
       <c r="B2" t="n">
-        <v>90676</v>
+        <v>55984</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,49 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>102964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fiskmås</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Larus canus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>704475.8039666617</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R2" t="n">
-        <v>6653153.304682363</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +762,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -776,31 +788,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105314691</v>
+        <v>110726882</v>
       </c>
       <c r="B3" t="n">
-        <v>90653</v>
+        <v>56314</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,41 +816,57 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>100067</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Haliaeetus albicilla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>704426.1416346439</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R3" t="n">
-        <v>6653151.555965652</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,22 +890,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,31 +916,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105314690</v>
+        <v>110726891</v>
       </c>
       <c r="B4" t="n">
-        <v>90676</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,37 +948,49 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704472.072585671</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R4" t="n">
-        <v>6653148.080147668</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -984,22 +1014,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,31 +1040,26 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105311121</v>
+        <v>110726880</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>55670</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,41 +1068,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>102976</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tornseglare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Apus apus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704433.9756461979</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R5" t="n">
-        <v>6653082.74501298</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,22 +1138,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1127,31 +1164,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108236679</v>
+        <v>110726901</v>
       </c>
       <c r="B6" t="n">
-        <v>8367</v>
+        <v>57010</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,47 +1192,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106554</v>
+        <v>103042</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>704450.5178283532</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R6" t="n">
-        <v>6653110.757766691</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1224,22 +1262,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,22 +1292,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ward Tamsyn</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ward Tamsyn</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110726881</v>
+        <v>105314689</v>
       </c>
       <c r="B7" t="n">
-        <v>55984</v>
+        <v>90676</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1282,49 +1320,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102964</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fiskmås</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Larus canus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704692.3958542988</v>
+        <v>704475.8039666617</v>
       </c>
       <c r="R7" t="n">
-        <v>6653253.627091072</v>
+        <v>6653153.304682363</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1348,22 +1374,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1374,26 +1400,31 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110726882</v>
+        <v>105314691</v>
       </c>
       <c r="B8" t="n">
-        <v>56314</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,57 +1433,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100067</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Haliaeetus albicilla</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>704692.3958542988</v>
+        <v>704426.1416346439</v>
       </c>
       <c r="R8" t="n">
-        <v>6653253.627091072</v>
+        <v>6653151.555965652</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1476,22 +1491,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1502,26 +1517,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110726891</v>
+        <v>105314690</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>90676</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1534,49 +1554,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704692.3958542988</v>
+        <v>704472.072585671</v>
       </c>
       <c r="R9" t="n">
-        <v>6653253.627091072</v>
+        <v>6653148.080147668</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1600,22 +1608,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1626,26 +1634,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110726880</v>
+        <v>105311121</v>
       </c>
       <c r="B10" t="n">
-        <v>55670</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,53 +1667,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102976</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tornseglare</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Apus apus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704692.3958542988</v>
+        <v>704433.9756461979</v>
       </c>
       <c r="R10" t="n">
-        <v>6653253.627091072</v>
+        <v>6653082.74501298</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1724,22 +1725,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1750,26 +1751,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110726901</v>
+        <v>108236679</v>
       </c>
       <c r="B11" t="n">
-        <v>57010</v>
+        <v>8367</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,53 +1784,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103042</v>
+        <v>106554</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704692.3958542988</v>
+        <v>704450.5178283532</v>
       </c>
       <c r="R11" t="n">
-        <v>6653253.627091072</v>
+        <v>6653110.757766691</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1848,22 +1848,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1878,12 +1878,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Ward Tamsyn</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Ward Tamsyn</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>

--- a/artfynd/A 11231-2021.xlsx
+++ b/artfynd/A 11231-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110726881</v>
+        <v>105314689</v>
       </c>
       <c r="B2" t="n">
-        <v>55984</v>
+        <v>90676</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,49 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102964</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fiskmås</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Larus canus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>704692.3958542988</v>
+        <v>704475.8039666617</v>
       </c>
       <c r="R2" t="n">
-        <v>6653253.627091072</v>
+        <v>6653153.304682363</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -762,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -788,26 +776,31 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110726882</v>
+        <v>105314691</v>
       </c>
       <c r="B3" t="n">
-        <v>56314</v>
+        <v>90653</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,57 +809,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100067</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Haliaeetus albicilla</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>704692.3958542988</v>
+        <v>704426.1416346439</v>
       </c>
       <c r="R3" t="n">
-        <v>6653253.627091072</v>
+        <v>6653151.555965652</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -890,22 +867,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,26 +893,31 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110726891</v>
+        <v>105314690</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>90676</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,49 +930,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704692.3958542988</v>
+        <v>704472.072585671</v>
       </c>
       <c r="R4" t="n">
-        <v>6653253.627091072</v>
+        <v>6653148.080147668</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1014,22 +984,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,26 +1010,31 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110726880</v>
+        <v>105311121</v>
       </c>
       <c r="B5" t="n">
-        <v>55670</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1068,53 +1043,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102976</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tornseglare</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Apus apus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704692.3958542988</v>
+        <v>704433.9756461979</v>
       </c>
       <c r="R5" t="n">
-        <v>6653253.627091072</v>
+        <v>6653082.74501298</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1138,22 +1101,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,26 +1127,31 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Henrik Tykosson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110726901</v>
+        <v>108236679</v>
       </c>
       <c r="B6" t="n">
-        <v>57010</v>
+        <v>8367</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,53 +1160,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103042</v>
+        <v>106554</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Norrtälje, Upl</t>
+          <t>Ältabergen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>704692.3958542988</v>
+        <v>704450.5178283532</v>
       </c>
       <c r="R6" t="n">
-        <v>6653253.627091072</v>
+        <v>6653110.757766691</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1262,22 +1224,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1292,22 +1254,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Ward Tamsyn</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mårten Wikström</t>
+          <t>Ward Tamsyn</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105314689</v>
+        <v>110726881</v>
       </c>
       <c r="B7" t="n">
-        <v>90676</v>
+        <v>55984</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1320,37 +1282,49 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5966</v>
+        <v>102964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fiskmås</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Larus canus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704475.8039666617</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R7" t="n">
-        <v>6653153.304682363</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1374,22 +1348,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1400,31 +1374,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105314691</v>
+        <v>110726882</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>56314</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1433,41 +1402,57 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>100067</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Haliaeetus albicilla</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>704426.1416346439</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R8" t="n">
-        <v>6653151.555965652</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1491,22 +1476,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1517,31 +1502,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105314690</v>
+        <v>110726891</v>
       </c>
       <c r="B9" t="n">
-        <v>90676</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1554,37 +1534,49 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704472.072585671</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R9" t="n">
-        <v>6653148.080147668</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1608,22 +1600,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1634,31 +1626,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105311121</v>
+        <v>110726880</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>55670</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,41 +1654,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>102976</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tornseglare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Apus apus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704433.9756461979</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R10" t="n">
-        <v>6653082.74501298</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1725,22 +1724,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,31 +1750,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>Henrik Tykosson</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Henrik Tykosson</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108236679</v>
+        <v>110726901</v>
       </c>
       <c r="B11" t="n">
-        <v>8367</v>
+        <v>57010</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1784,47 +1778,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>106554</v>
+        <v>103042</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ältabergen, Upl</t>
+          <t>Norrtälje, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704450.5178283532</v>
+        <v>704692.3958542988</v>
       </c>
       <c r="R11" t="n">
-        <v>6653110.757766691</v>
+        <v>6653253.627091072</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1848,22 +1848,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1878,12 +1878,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Ward Tamsyn</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Ward Tamsyn</t>
+          <t>Mårten Wikström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
